--- a/media/excel/流量表(方渠).xlsx
+++ b/media/excel/流量表(方渠).xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PythonProjects\Sewage\media\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python_Projects\Sewage\media\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C807E8E5-ADB5-437F-A6B4-626580B997E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD598295-DBF8-4FC2-864F-8AA7496F67BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="32940" windowHeight="15435"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="流量" sheetId="5" r:id="rId1"/>
+    <sheet name="流量" sheetId="6" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">流量!$1:1</definedName>
-  </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="15">
   <si>
     <t>流速仪测量（方渠）流量记录表</t>
   </si>
@@ -98,19 +95,19 @@
   </si>
   <si>
     <t>测量日期：         观测者：           检查者：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -119,12 +116,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -232,41 +223,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -275,23 +251,11 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,17 +266,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,458 +632,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75913629-7E0B-4691-B2AA-93D4F06ED00B}">
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="59.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26">
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
         <f>F4*E4*D4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="15">
         <f>AVERAGE(G4:G6)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="11" t="s">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G12" si="0">F5*E5*D5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="11" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26">
+      <c r="H6" s="15"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="14">
         <v>0.5</v>
       </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="15">
         <f>AVERAGE(G7:G9)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="11" t="s">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="11" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26">
+      <c r="H9" s="15"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="14">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="15">
         <f>AVERAGE(G10:G12)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="11" t="s">
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="11" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="18" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="13">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="8">
         <f>AVERAGE(H4:H12)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="18" t="s">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="12">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="7">
         <f>H13*86400</f>
         <v>0</v>
       </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="59.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <f>F19*E19*D19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <f>AVERAGE(G19:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <f t="shared" ref="G20:G27" si="1">F20*E20*D20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <f>AVERAGE(G22:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="14">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <f>AVERAGE(G25:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="19"/>
+      <c r="B28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="8">
+        <f>AVERAGE(H19:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="7">
+        <f>H28*86400</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="59.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
+        <f>F34*E34*D34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <f>AVERAGE(G34:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8">
+        <f t="shared" ref="G35:G42" si="2">F35*E35*D35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <f>AVERAGE(G37:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="19"/>
+      <c r="B40" s="14">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <f>AVERAGE(G40:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="8">
+        <f>AVERAGE(H34:H42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="7">
+        <f>H43*86400</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" ht="59.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="19"/>
+      <c r="B49" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
+        <f>F49*E49*D49</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <f>AVERAGE(G49:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8">
+        <f t="shared" ref="G50:G57" si="3">F50*E50*D50</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <f>AVERAGE(G52:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="19"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="19"/>
+      <c r="B55" s="14">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="15">
+        <f>AVERAGE(G55:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="19"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="19"/>
+      <c r="B58" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="8">
+        <f>AVERAGE(H49:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="20"/>
+      <c r="B59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="7">
+        <f>H58*86400</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" ht="59.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="19"/>
+      <c r="B64" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8">
+        <f>F64*E64*D64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="15">
+        <f>AVERAGE(G64:G66)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8">
+        <f t="shared" ref="G65:G72" si="4">F65*E65*D65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="19"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="19"/>
+      <c r="B67" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="15">
+        <f>AVERAGE(G67:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="19"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="19"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="19"/>
+      <c r="B70" s="14">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="15">
+        <f>AVERAGE(G70:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="19"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="19"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="19"/>
+      <c r="B73" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="8">
+        <f>AVERAGE(H64:H72)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="20"/>
+      <c r="B74" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="7">
+        <f>H73*86400</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9" ht="59.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="19"/>
+      <c r="B79" s="14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8">
+        <f>F79*E79*D79</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="15">
+        <f>AVERAGE(G79:G81)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="11"/>
+    </row>
+    <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="19"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8">
+        <f t="shared" ref="G80:G87" si="5">F80*E80*D80</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="19"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="19"/>
+      <c r="B82" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="15">
+        <f>AVERAGE(G82:G84)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="19"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="19"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="19"/>
+      <c r="B85" s="14">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="15">
+        <f>AVERAGE(G85:G87)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="19"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="19"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="19"/>
+      <c r="B88" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="8">
+        <f>AVERAGE(H79:H87)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="20"/>
+      <c r="B89" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="7">
+        <f>H88*86400</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="84">
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="A19:A29"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="A64:A74"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="B88:G88"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>